--- a/新平台-rookie购物/全部账号信息.xlsx
+++ b/新平台-rookie购物/全部账号信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>服务器</t>
   </si>
@@ -31,6 +31,36 @@
   </si>
   <si>
     <t>bot描述</t>
+  </si>
+  <si>
+    <t>http://hw-gz25.heyqiwu.cn/Editor/#/</t>
+  </si>
+  <si>
+    <t>langbo</t>
+  </si>
+  <si>
+    <t>rookie智能导购 </t>
+  </si>
+  <si>
+    <t>开发用</t>
+  </si>
+  <si>
+    <t>后台购物 </t>
+  </si>
+  <si>
+    <t>供后台调试用</t>
+  </si>
+  <si>
+    <t>测试专用 </t>
+  </si>
+  <si>
+    <t>晓悟购物 </t>
+  </si>
+  <si>
+    <t>rookie智能导购之生产服 </t>
+  </si>
+  <si>
+    <t>购物单轮测试 </t>
   </si>
 </sst>
 </file>
@@ -38,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -61,59 +91,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +141,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -144,16 +189,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,36 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,61 +235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,25 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,85 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,16 +445,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,16 +469,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,16 +546,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,124 +564,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1001,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="59.1111111111111" customWidth="1"/>
     <col min="2" max="3" width="20.5555555555556" customWidth="1"/>
@@ -1032,13 +1071,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/新平台-rookie购物/全部账号信息.xlsx
+++ b/新平台-rookie购物/全部账号信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>服务器</t>
   </si>
@@ -54,6 +54,9 @@
     <t>测试专用 </t>
   </si>
   <si>
+    <t>供提测用</t>
+  </si>
+  <si>
     <t>晓悟购物 </t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>购物单轮测试 </t>
+  </si>
+  <si>
+    <t>单轮测试用</t>
   </si>
 </sst>
 </file>
@@ -68,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,9 +104,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,15 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,6 +161,21 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,37 +187,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -180,17 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,29 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,31 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +432,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,22 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,144 +552,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,7 +1046,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1078,7 +1081,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
@@ -1091,7 +1094,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1099,36 +1102,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
